--- a/Báo Cáo/Activity_bar_chart và bảng phân hệ/Phân-hệ-Chức-năng-Nhiệm-vụ.xlsx
+++ b/Báo Cáo/Activity_bar_chart và bảng phân hệ/Phân-hệ-Chức-năng-Nhiệm-vụ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trant\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Software-Technology\Báo Cáo\Activity_bar_chart và bảng phân hệ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71AA79-BB2D-4C94-8283-CF9F5AE50065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1020D7C2-9D4B-45E0-98B3-477796F2BDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{34054EE9-184B-4CD0-9EF2-DA9D5A718D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>No</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Quản lý ví thanh toán</t>
+  </si>
+  <si>
+    <t>Liên kết ngân hàng</t>
+  </si>
+  <si>
+    <t>Rút tiền</t>
+  </si>
+  <si>
+    <t>Nạp tiền</t>
+  </si>
+  <si>
+    <t>Xem lịch sử giao dịch</t>
   </si>
 </sst>
 </file>
@@ -485,11 +500,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,50 +559,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,838 +879,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF7D01F-2B17-4ACD-AA2E-CAD07BA1EB35}">
-  <dimension ref="B1:E89"/>
+  <dimension ref="B1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="33" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="83.21875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="83.21875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <v>4</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E39" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12" t="s">
+    <row r="40" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12" t="s">
+    <row r="41" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12" t="s">
+    <row r="42" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12" t="s">
+    <row r="43" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12" t="s">
+    <row r="44" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="13" t="s">
+    <row r="45" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E45" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
+    <row r="46" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12" t="s">
+    <row r="47" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
+    <row r="48" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17">
         <v>5</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D48" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E48" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="4"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12" t="s">
+    <row r="49" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12" t="s">
+    <row r="50" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12" t="s">
+    <row r="51" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13" t="s">
+    <row r="52" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E52" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12" t="s">
+    <row r="53" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="4"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12" t="s">
+    <row r="54" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="4"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13" t="s">
+    <row r="55" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="4"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12" t="s">
+    <row r="56" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12" t="s">
+    <row r="57" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="4"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="12" t="s">
+    <row r="58" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="4"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16" t="s">
+    <row r="59" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E59" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="4"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="12" t="s">
+    <row r="60" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="4"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="12" t="s">
+    <row r="61" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="5"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="12" t="s">
+    <row r="62" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="3">
+    <row r="63" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="17">
         <v>6</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D63" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E63" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="4"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12" t="s">
+    <row r="64" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="18"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="4"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12" t="s">
+    <row r="65" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12" t="s">
+    <row r="66" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="18"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13" t="s">
+    <row r="67" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="18"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E67" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="4"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12" t="s">
+    <row r="68" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12" t="s">
+    <row r="69" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12" t="s">
+    <row r="70" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="18"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="4"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12" t="s">
+    <row r="71" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="18"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12" t="s">
+    <row r="72" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="18"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="4"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12" t="s">
+    <row r="73" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="4"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12" t="s">
+    <row r="74" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="4"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12" t="s">
+    <row r="75" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12" t="s">
+    <row r="76" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="4"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12" t="s">
+    <row r="77" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="18"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="4"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="13" t="s">
+    <row r="78" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="18"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="12" t="s">
+      <c r="E78" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="4"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12" t="s">
+    <row r="79" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="18"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="4"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12" t="s">
+    <row r="80" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="18"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="4"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12" t="s">
+    <row r="81" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="18"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12" t="s">
+    <row r="82" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="18"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="4"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12" t="s">
+    <row r="83" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="18"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12" t="s">
+    <row r="84" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="18"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="4"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12" t="s">
+    <row r="85" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="18"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="4"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12" t="s">
+    <row r="86" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="18"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="4"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12" t="s">
+    <row r="87" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="18"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12" t="s">
+    <row r="88" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="2">
+    <row r="89" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="16">
         <v>7</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C89" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D89" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E89" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12" t="s">
+    <row r="90" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="16"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="13" t="s">
+    <row r="91" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="16"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E91" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="12" t="s">
+    <row r="92" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="16"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12" t="s">
+    <row r="93" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="16"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="12" t="s">
+    <row r="94" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="16"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="5" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="C58:C83"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D72"/>
-    <mergeCell ref="D73:D83"/>
-    <mergeCell ref="C25:C33"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C42"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D40:D42"/>
+  <mergeCells count="33">
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="B25:B38"/>
+    <mergeCell ref="B63:B88"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="B48:B62"/>
+    <mergeCell ref="C48:C62"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C24"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="D21:D24"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="C43:C57"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C24"/>
-    <mergeCell ref="B84:B89"/>
-    <mergeCell ref="C84:C89"/>
-    <mergeCell ref="B4:B24"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B58:B83"/>
+    <mergeCell ref="C63:C88"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="D67:D77"/>
+    <mergeCell ref="D78:D88"/>
+    <mergeCell ref="C25:C38"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="D59:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
